--- a/Data/PRS313.xlsx
+++ b/Data/PRS313.xlsx
@@ -1184,7 +1184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,12 +1202,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1239,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1271,26 +1265,17 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,19 +1585,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1652,7 +1637,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +1674,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1726,7 +1711,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1763,7 +1748,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1785,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1822,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +1859,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1911,7 +1896,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1948,7 +1933,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1985,7 +1970,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2007,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2059,7 +2044,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2081,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -2133,7 +2118,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -2170,7 +2155,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2207,7 +2192,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -2244,7 +2229,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -13235,91 +13220,91 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="5"/>
-      <c r="B315" s="11"/>
-      <c r="C315" s="11"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="7"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
-      <c r="F315" s="12"/>
-      <c r="G315" s="12"/>
-      <c r="H315" s="13"/>
-      <c r="I315" s="13"/>
-      <c r="J315" s="12"/>
-      <c r="K315" s="12"/>
+      <c r="F315" s="10"/>
+      <c r="G315" s="10"/>
+      <c r="H315" s="9"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="10"/>
+      <c r="K315" s="10"/>
       <c r="L315" s="5"/>
       <c r="M315" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="5"/>
-      <c r="B316" s="11"/>
-      <c r="C316" s="11"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="7"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
-      <c r="F316" s="12"/>
-      <c r="G316" s="12"/>
-      <c r="H316" s="13"/>
-      <c r="I316" s="13"/>
-      <c r="J316" s="12"/>
-      <c r="K316" s="12"/>
+      <c r="F316" s="10"/>
+      <c r="G316" s="10"/>
+      <c r="H316" s="9"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="10"/>
+      <c r="K316" s="10"/>
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="5"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="11"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="7"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="13"/>
-      <c r="I317" s="13"/>
-      <c r="J317" s="12"/>
-      <c r="K317" s="12"/>
+      <c r="F317" s="10"/>
+      <c r="G317" s="10"/>
+      <c r="H317" s="9"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="10"/>
+      <c r="K317" s="10"/>
       <c r="L317" s="5"/>
       <c r="M317" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="5"/>
-      <c r="B318" s="11"/>
-      <c r="C318" s="11"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="7"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
-      <c r="F318" s="12"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="13"/>
-      <c r="I318" s="13"/>
-      <c r="J318" s="12"/>
-      <c r="K318" s="12"/>
+      <c r="F318" s="10"/>
+      <c r="G318" s="10"/>
+      <c r="H318" s="9"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="10"/>
+      <c r="K318" s="10"/>
       <c r="L318" s="5"/>
       <c r="M318" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="5"/>
-      <c r="B319" s="11"/>
-      <c r="C319" s="11"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="7"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="13"/>
-      <c r="I319" s="13"/>
-      <c r="J319" s="12"/>
-      <c r="K319" s="12"/>
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
+      <c r="H319" s="9"/>
+      <c r="I319" s="9"/>
+      <c r="J319" s="10"/>
+      <c r="K319" s="10"/>
       <c r="L319" s="5"/>
       <c r="M319" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="5"/>
-      <c r="B320" s="11"/>
-      <c r="C320" s="11"/>
+      <c r="B320" s="7"/>
+      <c r="C320" s="7"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
-      <c r="F320" s="12"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="13"/>
-      <c r="I320" s="13"/>
-      <c r="J320" s="12"/>
-      <c r="K320" s="12"/>
+      <c r="F320" s="10"/>
+      <c r="G320" s="10"/>
+      <c r="H320" s="9"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="10"/>
+      <c r="K320" s="10"/>
       <c r="L320" s="5"/>
       <c r="M320" s="5"/>
     </row>

--- a/Data/PRS313.xlsx
+++ b/Data/PRS313.xlsx
@@ -1600,7 +1600,7 @@
     <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>

--- a/Data/PRS313.xlsx
+++ b/Data/PRS313.xlsx
@@ -5892,7 +5892,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="5" t="s">
         <v>147</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="5" t="s">
         <v>148</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="5" t="s">
         <v>149</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="5" t="s">
         <v>151</v>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="5" t="s">
         <v>152</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="5" t="s">
         <v>153</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="5" t="s">
         <v>154</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="5" t="s">
         <v>155</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="5" t="s">
         <v>156</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="5" t="s">
         <v>157</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="5" t="s">
         <v>158</v>
       </c>
@@ -6299,7 +6299,7 @@
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="5" t="s">
         <v>159</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="5" t="s">
         <v>160</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="5" t="s">
         <v>161</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="5" t="s">
         <v>162</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="5" t="s">
         <v>163</v>
       </c>
@@ -6484,7 +6484,7 @@
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="5" t="s">
         <v>165</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="5" t="s">
         <v>166</v>
       </c>
@@ -6558,7 +6558,7 @@
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="5" t="s">
         <v>167</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="5" t="s">
         <v>168</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="5" t="s">
         <v>169</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="5" t="s">
         <v>170</v>
       </c>
@@ -6706,7 +6706,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="5" t="s">
         <v>171</v>
       </c>
@@ -6743,7 +6743,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="5" t="s">
         <v>172</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="5" t="s">
         <v>173</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="5" t="s">
         <v>174</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="5" t="s">
         <v>175</v>
       </c>
@@ -6891,7 +6891,7 @@
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="5" t="s">
         <v>176</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="5" t="s">
         <v>178</v>
       </c>

--- a/Data/PRS313.xlsx
+++ b/Data/PRS313.xlsx
@@ -1600,7 +1600,7 @@
     <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>

--- a/Data/PRS313.xlsx
+++ b/Data/PRS313.xlsx
@@ -70,19 +70,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Overall Breast Cancer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri (Body)"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>Overall Breast Cancerstyle="font-weight: bold;font-family: Calibri (Body);font-size: 15px;color: #000000;"&gt;d&lt;/span</t>
   </si>
   <si>
     <r>
@@ -2636,7 +2624,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -2673,7 +2661,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -2710,7 +2698,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -2747,7 +2735,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -2784,7 +2772,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -2821,7 +2809,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
@@ -2858,7 +2846,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
@@ -2895,7 +2883,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="5" t="s">
         <v>55</v>
       </c>
@@ -2932,7 +2920,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
